--- a/covid-19_dist0720_0713CSD.xlsx
+++ b/covid-19_dist0720_0713CSD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SumiKim\Desktop\MIDS_Courses\W203_Statistics\Lab3\Lab-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C7D9F0-D6AB-4920-9B1B-14B76BBB6079}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FB17B2-F456-4986-B59C-3C9A29039AC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -382,7 +382,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.000%"/>
+    <numFmt numFmtId="176" formatCode="0.000%"/>
   </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
@@ -980,6 +980,7 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1007,7 +1008,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - 강조색1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1783,12 +1783,20 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
-              <a:t> Insurance Max vs. 7daycases/population</a:t>
+              <a:t> Insurance Max (X) vs. 7daycases/population (Y)</a:t>
             </a:r>
             <a:endParaRPr lang="ko-KR" altLang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.24933198208640944"/>
+          <c:y val="2.5598394874101392E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2420,6 +2428,688 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>Unemployment</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+              <a:t> Insurance Max (X) vs. </a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+              <a:t>Total cases/population (Y)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.24933198208640944"/>
+          <c:y val="2.5598394874101392E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.9334979431363671E-2"/>
+                  <c:y val="-0.17730415788191567"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ko-KR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>test1!$N$2:$N$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>451</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>618</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>649</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>444</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>648</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>488</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>552</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>823</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>552</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>469</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>427</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>713</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>618</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>539</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>648</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>572</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>513</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>424</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>508</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>test1!$AA$2:$AA$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="4" formatCode="0.000%">
+                  <c:v>7.9015868539148749E-3</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.000%">
+                  <c:v>6.5767046047044211E-3</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.000%">
+                  <c:v>5.9809704534967917E-3</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.000%">
+                  <c:v>1.3076233008132584E-2</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.000%">
+                  <c:v>1.2767132182416553E-2</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.000%">
+                  <c:v>1.4921952295876605E-2</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.000%">
+                  <c:v>9.2526875851699532E-3</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.000%">
+                  <c:v>9.0799208135386982E-3</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.000%">
+                  <c:v>6.6103903509420335E-4</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.000%">
+                  <c:v>4.4082571736076904E-3</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.000%">
+                  <c:v>1.1645245144053722E-2</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.000%">
+                  <c:v>7.174069820161097E-3</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.000%">
+                  <c:v>9.933954238477637E-3</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.000%">
+                  <c:v>5.4676189805615994E-3</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.000%">
+                  <c:v>3.6648448371475978E-3</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.000%">
+                  <c:v>1.3997061788703724E-2</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.000%">
+                  <c:v>2.5575237372273247E-3</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.000%">
+                  <c:v>1.1568304196886236E-2</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.000%">
+                  <c:v>1.5933298455307179E-2</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.000%">
+                  <c:v>7.2970808575303012E-3</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.000%">
+                  <c:v>6.8736000045623207E-3</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.000%">
+                  <c:v>1.0465992305451477E-2</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="0.000%">
+                  <c:v>3.8253788652877719E-3</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="0.000%">
+                  <c:v>1.1757451955888374E-3</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="0.000%">
+                  <c:v>1.032982457595316E-2</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="0.000%">
+                  <c:v>7.4631095784592101E-3</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.000%">
+                  <c:v>4.3473517056923251E-3</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="0.000%">
+                  <c:v>1.9464737128052696E-2</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="0.000%">
+                  <c:v>6.3261538931425939E-3</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="0.000%">
+                  <c:v>2.0408542350560267E-2</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="0.000%">
+                  <c:v>7.02866630327381E-3</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="0.000%">
+                  <c:v>5.0205439712029173E-3</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="0.000%">
+                  <c:v>4.8891127566225998E-3</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="0.000%">
+                  <c:v>4.0009342952550533E-3</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="0.000%">
+                  <c:v>2.4411120494292975E-3</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="0.000%">
+                  <c:v>7.0511108716598504E-3</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="0.000%">
+                  <c:v>1.606995077152977E-2</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="0.000%">
+                  <c:v>8.8209834254730467E-3</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="0.000%">
+                  <c:v>8.0058034423934662E-3</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="0.000%">
+                  <c:v>7.5968868583650541E-3</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="0.000%">
+                  <c:v>6.8023153215411762E-3</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="0.000%">
+                  <c:v>8.0667994261500332E-3</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="0.000%">
+                  <c:v>1.9974485030312995E-3</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="0.000%">
+                  <c:v>7.7605593538619946E-3</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="0.000%">
+                  <c:v>4.7637935763764246E-3</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="0.000%">
+                  <c:v>1.8467941646842009E-3</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="0.000%">
+                  <c:v>5.9756762112355101E-3</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="0.000%">
+                  <c:v>2.8282765341323128E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6EA8-4B3D-BC2A-27E137024651}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="427167792"/>
+        <c:axId val="331347880"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="427167792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="331347880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="331347880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="427167792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2461,6 +3151,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3532,20 +4262,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>860136</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>83127</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>398317</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>94672</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>646546</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>46182</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>704273</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>57727</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3572,16 +4818,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>432953</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>92363</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>259770</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>23090</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>126999</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>55419</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>623453</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>205510</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3601,6 +4847,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>363683</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>182420</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="차트 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E223A213-D5CB-415E-B0E4-7C4DB65C0CB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3906,14 +5190,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{295F21B8-C63C-419A-9986-C653F93520B7}">
-  <dimension ref="A1:Z53"/>
+  <dimension ref="A1:AA53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G50" activePane="bottomRight" state="frozen"/>
       <selection activeCell="I44" sqref="F44:I55"/>
       <selection pane="topRight" activeCell="I44" sqref="F44:I55"/>
       <selection pane="bottomLeft" activeCell="I44" sqref="F44:I55"/>
-      <selection pane="bottomRight" activeCell="AA32" sqref="AA32"/>
+      <selection pane="bottomRight" activeCell="X75" sqref="X75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3926,7 +5210,7 @@
     <col min="13" max="13" width="14.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="9" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:27" s="9" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
         <v>35</v>
       </c>
@@ -4006,7 +5290,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -4082,12 +5366,12 @@
       <c r="Y2">
         <v>0.17</v>
       </c>
-      <c r="Z2" s="32">
+      <c r="Z2" s="23">
         <f>E2/P2</f>
         <v>2.0057812491368942E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -4163,12 +5447,12 @@
       <c r="Y3">
         <v>0.12</v>
       </c>
-      <c r="Z3" s="32">
+      <c r="Z3" s="23">
         <f>E3/P3</f>
         <v>3.8511712171057091E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -4244,12 +5528,12 @@
       <c r="Y4">
         <v>0.18</v>
       </c>
-      <c r="Z4" s="32">
+      <c r="Z4" s="23">
         <f>E4/P4</f>
         <v>3.9095627419423662E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>88</v>
       </c>
@@ -4325,9 +5609,9 @@
       <c r="Y5">
         <v>0.18</v>
       </c>
-      <c r="Z5" s="32"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="Z5" s="23"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -4403,12 +5687,16 @@
       <c r="Y6">
         <v>0.17</v>
       </c>
-      <c r="Z6" s="32">
-        <f>E6/P6</f>
+      <c r="Z6" s="23">
+        <f t="shared" ref="Z6:AA53" si="0">E6/P6</f>
         <v>1.4944464260532712E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA6" s="23">
+        <f>B6/P6</f>
+        <v>7.9015868539148749E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -4484,12 +5772,16 @@
       <c r="Y7">
         <v>0.14000000000000001</v>
       </c>
-      <c r="Z7" s="32">
-        <f>E7/P7</f>
+      <c r="Z7" s="23">
+        <f t="shared" si="0"/>
         <v>1.3580893112718608E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA7" s="23">
+        <f t="shared" ref="AA7:AA53" si="1">B7/P7</f>
+        <v>6.5767046047044211E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -4565,12 +5857,16 @@
       <c r="Y8">
         <v>0.14000000000000001</v>
       </c>
-      <c r="Z8" s="32">
-        <f>E8/P8</f>
+      <c r="Z8" s="23">
+        <f t="shared" si="0"/>
         <v>3.5870020949637299E-4</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA8" s="23">
+        <f t="shared" si="1"/>
+        <v>5.9809704534967917E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -4646,12 +5942,16 @@
       <c r="Y9">
         <v>0.17</v>
       </c>
-      <c r="Z9" s="32">
-        <f>E9/P9</f>
+      <c r="Z9" s="23">
+        <f t="shared" si="0"/>
         <v>1.4303048284683843E-4</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA9" s="23">
+        <f t="shared" si="1"/>
+        <v>1.3076233008132584E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -4727,12 +6027,16 @@
       <c r="Y10">
         <v>0.19</v>
       </c>
-      <c r="Z10" s="32">
-        <f>E10/P10</f>
+      <c r="Z10" s="23">
+        <f t="shared" si="0"/>
         <v>1.1321679413464631E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA10" s="23">
+        <f t="shared" si="1"/>
+        <v>1.2767132182416553E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -4808,12 +6112,16 @@
       <c r="Y11">
         <v>0.12</v>
       </c>
-      <c r="Z11" s="32">
-        <f>E11/P11</f>
+      <c r="Z11" s="23">
+        <f t="shared" si="0"/>
         <v>3.7867194339850951E-4</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA11" s="23">
+        <f t="shared" si="1"/>
+        <v>1.4921952295876605E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -4889,12 +6197,16 @@
       <c r="Y12">
         <v>0.21</v>
       </c>
-      <c r="Z12" s="32">
-        <f>E12/P12</f>
+      <c r="Z12" s="23">
+        <f t="shared" si="0"/>
         <v>3.1448883943505251E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA12" s="23">
+        <f t="shared" si="1"/>
+        <v>9.2526875851699532E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -4970,12 +6282,16 @@
       <c r="Y13">
         <v>0.14000000000000001</v>
       </c>
-      <c r="Z13" s="32">
-        <f>E13/P13</f>
+      <c r="Z13" s="23">
+        <f t="shared" si="0"/>
         <v>1.9517133697261508E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA13" s="23">
+        <f t="shared" si="1"/>
+        <v>9.0799208135386982E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -5051,12 +6367,16 @@
       <c r="Y14">
         <v>0.19</v>
       </c>
-      <c r="Z14" s="32">
-        <f>E14/P14</f>
+      <c r="Z14" s="23">
+        <f t="shared" si="0"/>
         <v>9.6445524822050973E-5</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA14" s="23">
+        <f t="shared" si="1"/>
+        <v>6.6103903509420335E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -5132,12 +6452,16 @@
       <c r="Y15">
         <v>0.16</v>
       </c>
-      <c r="Z15" s="32">
-        <f>E15/P15</f>
+      <c r="Z15" s="23">
+        <f t="shared" si="0"/>
         <v>1.376119593571572E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA15" s="23">
+        <f t="shared" si="1"/>
+        <v>4.4082571736076904E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -5213,12 +6537,16 @@
       <c r="Y16">
         <v>0.15</v>
       </c>
-      <c r="Z16" s="32">
-        <f>E16/P16</f>
+      <c r="Z16" s="23">
+        <f t="shared" si="0"/>
         <v>4.8998985957234399E-4</v>
       </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA16" s="23">
+        <f t="shared" si="1"/>
+        <v>1.1645245144053722E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -5294,12 +6622,16 @@
       <c r="Y17">
         <v>0.16</v>
       </c>
-      <c r="Z17" s="32">
-        <f>E17/P17</f>
+      <c r="Z17" s="23">
+        <f t="shared" si="0"/>
         <v>5.130099502710599E-4</v>
       </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA17" s="23">
+        <f t="shared" si="1"/>
+        <v>7.174069820161097E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -5375,12 +6707,16 @@
       <c r="Y18">
         <v>0.17</v>
       </c>
-      <c r="Z18" s="32">
-        <f>E18/P18</f>
+      <c r="Z18" s="23">
+        <f t="shared" si="0"/>
         <v>1.0585698692550565E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA18" s="23">
+        <f t="shared" si="1"/>
+        <v>9.933954238477637E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -5456,12 +6792,16 @@
       <c r="Y19">
         <v>0.16</v>
       </c>
-      <c r="Z19" s="32">
-        <f>E19/P19</f>
+      <c r="Z19" s="23">
+        <f t="shared" si="0"/>
         <v>8.1779011198675601E-4</v>
       </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA19" s="23">
+        <f t="shared" si="1"/>
+        <v>5.4676189805615994E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -5534,12 +6874,16 @@
       <c r="Y20">
         <v>0.16</v>
       </c>
-      <c r="Z20" s="32">
-        <f>E20/P20</f>
+      <c r="Z20" s="23">
+        <f t="shared" si="0"/>
         <v>2.7056652467705459E-4</v>
       </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA20" s="23">
+        <f t="shared" si="1"/>
+        <v>3.6648448371475978E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>54</v>
       </c>
@@ -5615,12 +6959,16 @@
       <c r="Y21">
         <v>0.15</v>
       </c>
-      <c r="Z21" s="32">
-        <f>E21/P21</f>
+      <c r="Z21" s="23">
+        <f t="shared" si="0"/>
         <v>2.2440020103099197E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA21" s="23">
+        <f t="shared" si="1"/>
+        <v>1.3997061788703724E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>55</v>
       </c>
@@ -5696,12 +7044,16 @@
       <c r="Y22">
         <v>0.21</v>
       </c>
-      <c r="Z22" s="32">
-        <f>E22/P22</f>
+      <c r="Z22" s="23">
+        <f t="shared" si="0"/>
         <v>1.7334078499466529E-4</v>
       </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA22" s="23">
+        <f t="shared" si="1"/>
+        <v>2.5575237372273247E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -5777,12 +7129,16 @@
       <c r="Y23">
         <v>0.15</v>
       </c>
-      <c r="Z23" s="32">
-        <f>E23/P23</f>
+      <c r="Z23" s="23">
+        <f t="shared" si="0"/>
         <v>5.1748236472395372E-4</v>
       </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA23" s="23">
+        <f t="shared" si="1"/>
+        <v>1.1568304196886236E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>98</v>
       </c>
@@ -5858,12 +7214,16 @@
       <c r="Y24">
         <v>0.17</v>
       </c>
-      <c r="Z24" s="32">
-        <f>E24/P24</f>
+      <c r="Z24" s="23">
+        <f t="shared" si="0"/>
         <v>2.2181497385814186E-4</v>
       </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA24" s="23">
+        <f t="shared" si="1"/>
+        <v>1.5933298455307179E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -5939,12 +7299,16 @@
       <c r="Y25">
         <v>0.17</v>
       </c>
-      <c r="Z25" s="32">
-        <f>E25/P25</f>
+      <c r="Z25" s="23">
+        <f t="shared" si="0"/>
         <v>3.2633330715597323E-4</v>
       </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA25" s="23">
+        <f t="shared" si="1"/>
+        <v>7.2970808575303012E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -6020,12 +7384,16 @@
       <c r="Y26">
         <v>0.16</v>
       </c>
-      <c r="Z26" s="32">
-        <f>E26/P26</f>
+      <c r="Z26" s="23">
+        <f t="shared" si="0"/>
         <v>5.3821130995821017E-4</v>
       </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA26" s="23">
+        <f t="shared" si="1"/>
+        <v>6.8736000045623207E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -6101,12 +7469,16 @@
       <c r="Y27">
         <v>0.16</v>
       </c>
-      <c r="Z27" s="32">
-        <f>E27/P27</f>
+      <c r="Z27" s="23">
+        <f t="shared" si="0"/>
         <v>1.7963991655868181E-3</v>
       </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA27" s="23">
+        <f t="shared" si="1"/>
+        <v>1.0465992305451477E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -6182,12 +7554,16 @@
       <c r="Y28">
         <v>0.17</v>
       </c>
-      <c r="Z28" s="32">
-        <f>E28/P28</f>
+      <c r="Z28" s="23">
+        <f t="shared" si="0"/>
         <v>5.1824449126509117E-4</v>
       </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA28" s="23">
+        <f t="shared" si="1"/>
+        <v>3.8253788652877719E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -6263,12 +7639,16 @@
       <c r="Y29">
         <v>0.19</v>
       </c>
-      <c r="Z29" s="32">
-        <f>E29/P29</f>
+      <c r="Z29" s="23">
+        <f t="shared" si="0"/>
         <v>3.7371564663632386E-4</v>
       </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA29" s="23">
+        <f t="shared" si="1"/>
+        <v>1.1757451955888374E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -6344,12 +7724,16 @@
       <c r="Y30">
         <v>0.16</v>
       </c>
-      <c r="Z30" s="32">
-        <f>E30/P30</f>
+      <c r="Z30" s="23">
+        <f t="shared" si="0"/>
         <v>5.981543258894047E-4</v>
       </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA30" s="23">
+        <f t="shared" si="1"/>
+        <v>1.032982457595316E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>63</v>
       </c>
@@ -6425,12 +7809,16 @@
       <c r="Y31">
         <v>0.16</v>
       </c>
-      <c r="Z31" s="32">
-        <f>E31/P31</f>
+      <c r="Z31" s="23">
+        <f t="shared" si="0"/>
         <v>2.0004007392584741E-3</v>
       </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA31" s="23">
+        <f t="shared" si="1"/>
+        <v>7.4631095784592101E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -6506,12 +7894,16 @@
       <c r="Y32">
         <v>0.18</v>
       </c>
-      <c r="Z32" s="32">
-        <f>E32/P32</f>
+      <c r="Z32" s="23">
+        <f t="shared" si="0"/>
         <v>1.666103926549882E-4</v>
       </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA32" s="23">
+        <f t="shared" si="1"/>
+        <v>4.3473517056923251E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>100</v>
       </c>
@@ -6587,12 +7979,16 @@
       <c r="Y33">
         <v>0.16</v>
       </c>
-      <c r="Z33" s="32">
-        <f>E33/P33</f>
+      <c r="Z33" s="23">
+        <f t="shared" si="0"/>
         <v>2.8388553878758762E-4</v>
       </c>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA33" s="23">
+        <f t="shared" si="1"/>
+        <v>1.9464737128052696E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -6668,12 +8064,16 @@
       <c r="Y34">
         <v>0.18</v>
       </c>
-      <c r="Z34" s="32">
-        <f>E34/P34</f>
+      <c r="Z34" s="23">
+        <f t="shared" si="0"/>
         <v>7.812246471842507E-4</v>
       </c>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA34" s="23">
+        <f t="shared" si="1"/>
+        <v>6.3261538931425939E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>67</v>
       </c>
@@ -6749,12 +8149,16 @@
       <c r="Y35">
         <v>0.16</v>
       </c>
-      <c r="Z35" s="32">
-        <f>E35/P35</f>
+      <c r="Z35" s="23">
+        <f t="shared" si="0"/>
         <v>2.6097356752248426E-4</v>
       </c>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA35" s="23">
+        <f t="shared" si="1"/>
+        <v>2.0408542350560267E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>68</v>
       </c>
@@ -6830,12 +8234,16 @@
       <c r="Y36">
         <v>0.16</v>
       </c>
-      <c r="Z36" s="32">
-        <f>E36/P36</f>
+      <c r="Z36" s="23">
+        <f t="shared" si="0"/>
         <v>1.1986185935155562E-3</v>
       </c>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA36" s="23">
+        <f t="shared" si="1"/>
+        <v>7.02866630327381E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>69</v>
       </c>
@@ -6911,12 +8319,16 @@
       <c r="Y37">
         <v>0.15</v>
       </c>
-      <c r="Z37" s="32">
-        <f>E37/P37</f>
+      <c r="Z37" s="23">
+        <f t="shared" si="0"/>
         <v>4.710049113445085E-4</v>
       </c>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA37" s="23">
+        <f t="shared" si="1"/>
+        <v>5.0205439712029173E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>70</v>
       </c>
@@ -6983,12 +8395,16 @@
       <c r="Y38">
         <v>0.17</v>
       </c>
-      <c r="Z38" s="32">
-        <f>E38/P38</f>
+      <c r="Z38" s="23">
+        <f t="shared" si="0"/>
         <v>6.5837188806788208E-4</v>
       </c>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA38" s="23">
+        <f t="shared" si="1"/>
+        <v>4.8891127566225998E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>101</v>
       </c>
@@ -7064,12 +8480,16 @@
       <c r="Y39">
         <v>0.16</v>
       </c>
-      <c r="Z39" s="32">
-        <f>E39/P39</f>
+      <c r="Z39" s="23">
+        <f t="shared" si="0"/>
         <v>8.6455280251803227E-4</v>
       </c>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA39" s="23">
+        <f t="shared" si="1"/>
+        <v>4.0009342952550533E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>71</v>
       </c>
@@ -7145,12 +8565,16 @@
       <c r="Y40">
         <v>0.18</v>
       </c>
-      <c r="Z40" s="32">
-        <f>E40/P40</f>
+      <c r="Z40" s="23">
+        <f t="shared" si="0"/>
         <v>5.0969846897174777E-4</v>
       </c>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA40" s="23">
+        <f t="shared" si="1"/>
+        <v>2.4411120494292975E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>72</v>
       </c>
@@ -7226,12 +8650,16 @@
       <c r="Y41">
         <v>0.18</v>
       </c>
-      <c r="Z41" s="32">
-        <f>E41/P41</f>
+      <c r="Z41" s="23">
+        <f t="shared" si="0"/>
         <v>3.7541793354602853E-4</v>
       </c>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA41" s="23">
+        <f t="shared" si="1"/>
+        <v>7.0511108716598504E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>73</v>
       </c>
@@ -7307,12 +8735,16 @@
       <c r="Y42">
         <v>0.17</v>
       </c>
-      <c r="Z42" s="32">
-        <f>E42/P42</f>
+      <c r="Z42" s="23">
+        <f t="shared" si="0"/>
         <v>3.1211133862661552E-4</v>
       </c>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA42" s="23">
+        <f t="shared" si="1"/>
+        <v>1.606995077152977E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>74</v>
       </c>
@@ -7388,12 +8820,16 @@
       <c r="Y43">
         <v>0.18</v>
       </c>
-      <c r="Z43" s="32">
-        <f>E43/P43</f>
+      <c r="Z43" s="23">
+        <f t="shared" si="0"/>
         <v>2.5388822899191938E-3</v>
       </c>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA43" s="23">
+        <f t="shared" si="1"/>
+        <v>8.8209834254730467E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>75</v>
       </c>
@@ -7469,12 +8905,16 @@
       <c r="Y44">
         <v>0.16</v>
       </c>
-      <c r="Z44" s="32">
-        <f>E44/P44</f>
+      <c r="Z44" s="23">
+        <f t="shared" si="0"/>
         <v>4.9533287616111352E-4</v>
       </c>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA44" s="23">
+        <f t="shared" si="1"/>
+        <v>8.0058034423934662E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>76</v>
       </c>
@@ -7550,12 +8990,16 @@
       <c r="Y45">
         <v>0.16</v>
       </c>
-      <c r="Z45" s="32">
-        <f>E45/P45</f>
+      <c r="Z45" s="23">
+        <f t="shared" si="0"/>
         <v>1.66306992161016E-3</v>
       </c>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA45" s="23">
+        <f t="shared" si="1"/>
+        <v>7.5968868583650541E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>77</v>
       </c>
@@ -7631,12 +9075,16 @@
       <c r="Y46">
         <v>0.13</v>
       </c>
-      <c r="Z46" s="32">
-        <f>E46/P46</f>
+      <c r="Z46" s="23">
+        <f t="shared" si="0"/>
         <v>1.8071312140386794E-3</v>
       </c>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA46" s="23">
+        <f t="shared" si="1"/>
+        <v>6.8023153215411762E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>78</v>
       </c>
@@ -7712,12 +9160,16 @@
       <c r="Y47">
         <v>0.11</v>
       </c>
-      <c r="Z47" s="32">
-        <f>E47/P47</f>
+      <c r="Z47" s="23">
+        <f t="shared" si="0"/>
         <v>1.4279816709663236E-3</v>
       </c>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA47" s="23">
+        <f t="shared" si="1"/>
+        <v>8.0667994261500332E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>79</v>
       </c>
@@ -7793,12 +9245,16 @@
       <c r="Y48">
         <v>0.2</v>
       </c>
-      <c r="Z48" s="32">
-        <f>E48/P48</f>
+      <c r="Z48" s="23">
+        <f t="shared" si="0"/>
         <v>8.1430754320220854E-5</v>
       </c>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA48" s="23">
+        <f t="shared" si="1"/>
+        <v>1.9974485030312995E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>80</v>
       </c>
@@ -7874,12 +9330,16 @@
       <c r="Y49">
         <v>0.16</v>
       </c>
-      <c r="Z49" s="32">
-        <f>E49/P49</f>
+      <c r="Z49" s="23">
+        <f t="shared" si="0"/>
         <v>5.1258058967900311E-4</v>
       </c>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA49" s="23">
+        <f t="shared" si="1"/>
+        <v>7.7605593538619946E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>81</v>
       </c>
@@ -7955,12 +9415,16 @@
       <c r="Y50">
         <v>0.16</v>
       </c>
-      <c r="Z50" s="32">
-        <f>E50/P50</f>
+      <c r="Z50" s="23">
+        <f t="shared" si="0"/>
         <v>5.9636994629883706E-4</v>
       </c>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA50" s="23">
+        <f t="shared" si="1"/>
+        <v>4.7637935763764246E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>82</v>
       </c>
@@ -8036,12 +9500,16 @@
       <c r="Y51">
         <v>0.2</v>
       </c>
-      <c r="Z51" s="32">
-        <f>E51/P51</f>
+      <c r="Z51" s="23">
+        <f t="shared" si="0"/>
         <v>3.0623003690265763E-4</v>
       </c>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA51" s="23">
+        <f t="shared" si="1"/>
+        <v>1.8467941646842009E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>83</v>
       </c>
@@ -8117,12 +9585,16 @@
       <c r="Y52">
         <v>0.17</v>
       </c>
-      <c r="Z52" s="32">
-        <f>E52/P52</f>
+      <c r="Z52" s="23">
+        <f t="shared" si="0"/>
         <v>7.7628747096447485E-4</v>
       </c>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA52" s="23">
+        <f t="shared" si="1"/>
+        <v>5.9756762112355101E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>84</v>
       </c>
@@ -8198,9 +9670,13 @@
       <c r="Y53">
         <v>0.17</v>
       </c>
-      <c r="Z53" s="32">
-        <f>E53/P53</f>
+      <c r="Z53" s="23">
+        <f t="shared" si="0"/>
         <v>4.1887571680539762E-4</v>
+      </c>
+      <c r="AA53" s="23">
+        <f t="shared" si="1"/>
+        <v>2.8282765341323128E-3</v>
       </c>
     </row>
   </sheetData>
@@ -8244,16 +9720,16 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="40.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="26">
         <v>44014</v>
       </c>
       <c r="E2" s="7" t="s">
@@ -8264,138 +9740,138 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" s="27"/>
+      <c r="A3" s="28"/>
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="23"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="24"/>
       <c r="E3" s="7"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" s="27"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="23"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="24"/>
       <c r="E4" s="7"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" s="27"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="23"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="24"/>
       <c r="E5" s="7"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="27"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="23"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="24"/>
       <c r="E6" s="7"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="27"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="23"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="24"/>
       <c r="E7" s="7"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="100.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="28" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="23"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="7"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" s="27"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="23"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="24"/>
       <c r="E9" s="7"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" s="27"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="23"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="24"/>
       <c r="E10" s="7"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="29.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="27"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="23"/>
+      <c r="D11" s="24"/>
       <c r="E11" s="7"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="27"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="23"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="24"/>
       <c r="E12" s="7"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="27"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="23"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="7"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -8411,16 +9887,16 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="28" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="24">
+      <c r="D15" s="25">
         <v>2018</v>
       </c>
       <c r="E15" s="7"/>
@@ -8429,60 +9905,60 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A16" s="27"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
       <c r="E16" s="7"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A17" s="27"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
       <c r="E17" s="7"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A18" s="27"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
       <c r="E18" s="7"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" s="27"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
       <c r="E19" s="7"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A20" s="27"/>
+      <c r="A20" s="28"/>
       <c r="B20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
       <c r="E20" s="7"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -8498,16 +9974,16 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="29" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="24">
         <v>44018</v>
       </c>
       <c r="E22" s="19"/>
@@ -8516,55 +9992,55 @@
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A23" s="28"/>
+      <c r="A23" s="29"/>
       <c r="B23" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="23"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="24"/>
       <c r="E23" s="19"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A24" s="28"/>
+      <c r="A24" s="29"/>
       <c r="B24" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="23"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="24"/>
       <c r="E24" s="19"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A25" s="28"/>
+      <c r="A25" s="29"/>
       <c r="B25" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="23"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="24"/>
       <c r="E25" s="19"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A26" s="28"/>
+      <c r="A26" s="29"/>
       <c r="B26" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="23"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="24"/>
       <c r="E26" s="19"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="29"/>
+      <c r="A27" s="30"/>
       <c r="B27" s="20" t="s">
         <v>87</v>
       </c>
